--- a/Filtered_By_Region/BARMM_REPAIR.xlsx
+++ b/Filtered_By_Region/BARMM_REPAIR.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DropdownOptions" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU48"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -669,6 +670,26 @@
           <t>PROJECTED COMPLETION DATE</t>
         </is>
       </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>Status as of July 4, 2025</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -719,7 +740,6 @@
       <c r="L2" t="n">
         <v>1</v>
       </c>
-      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -728,17 +748,6 @@
       <c r="O2" t="n">
         <v>0</v>
       </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="n">
         <v>0</v>
       </c>
@@ -781,13 +790,6 @@
       <c r="AN2" t="n">
         <v>0</v>
       </c>
-      <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
-      <c r="AS2" t="inlineStr"/>
-      <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -838,7 +840,6 @@
       <c r="L3" t="n">
         <v>1</v>
       </c>
-      <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -847,17 +848,6 @@
       <c r="O3" t="n">
         <v>0</v>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr"/>
-      <c r="W3" t="inlineStr"/>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
       <c r="AA3" t="n">
         <v>0</v>
       </c>
@@ -900,13 +890,6 @@
       <c r="AN3" t="n">
         <v>0</v>
       </c>
-      <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
-      <c r="AR3" t="inlineStr"/>
-      <c r="AS3" t="inlineStr"/>
-      <c r="AT3" t="inlineStr"/>
-      <c r="AU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -957,7 +940,6 @@
       <c r="L4" t="n">
         <v>1</v>
       </c>
-      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -966,17 +948,6 @@
       <c r="O4" t="n">
         <v>0</v>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
-      <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
       <c r="AA4" t="n">
         <v>0</v>
       </c>
@@ -1019,13 +990,6 @@
       <c r="AN4" t="n">
         <v>0</v>
       </c>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1076,7 +1040,6 @@
       <c r="L5" t="n">
         <v>1</v>
       </c>
-      <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1085,17 +1048,6 @@
       <c r="O5" t="n">
         <v>0</v>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="n">
         <v>0</v>
       </c>
@@ -1141,12 +1093,6 @@
       <c r="AO5" t="n">
         <v>0</v>
       </c>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
-      <c r="AR5" t="inlineStr"/>
-      <c r="AS5" t="inlineStr"/>
-      <c r="AT5" t="inlineStr"/>
-      <c r="AU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1197,7 +1143,6 @@
       <c r="L6" t="n">
         <v>1</v>
       </c>
-      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1206,17 +1151,6 @@
       <c r="O6" t="n">
         <v>0</v>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="n">
         <v>0</v>
       </c>
@@ -1262,12 +1196,6 @@
       <c r="AO6" t="n">
         <v>0</v>
       </c>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
-      <c r="AR6" t="inlineStr"/>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="inlineStr"/>
-      <c r="AU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1318,7 +1246,6 @@
       <c r="L7" t="n">
         <v>1</v>
       </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1327,17 +1254,6 @@
       <c r="O7" t="n">
         <v>0</v>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
       <c r="AA7" t="n">
         <v>0</v>
       </c>
@@ -1383,12 +1299,6 @@
       <c r="AO7" t="n">
         <v>0</v>
       </c>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
-      <c r="AR7" t="inlineStr"/>
-      <c r="AS7" t="inlineStr"/>
-      <c r="AT7" t="inlineStr"/>
-      <c r="AU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1439,7 +1349,6 @@
       <c r="L8" t="n">
         <v>1</v>
       </c>
-      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1448,17 +1357,6 @@
       <c r="O8" t="n">
         <v>0</v>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr"/>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="n">
         <v>0</v>
       </c>
@@ -1504,12 +1402,6 @@
       <c r="AO8" t="n">
         <v>0</v>
       </c>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
-      <c r="AR8" t="inlineStr"/>
-      <c r="AS8" t="inlineStr"/>
-      <c r="AT8" t="inlineStr"/>
-      <c r="AU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1560,7 +1452,6 @@
       <c r="L9" t="n">
         <v>1</v>
       </c>
-      <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1569,17 +1460,6 @@
       <c r="O9" t="n">
         <v>0</v>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr"/>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="n">
         <v>0</v>
       </c>
@@ -1625,12 +1505,6 @@
       <c r="AO9" t="n">
         <v>0</v>
       </c>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
-      <c r="AR9" t="inlineStr"/>
-      <c r="AS9" t="inlineStr"/>
-      <c r="AT9" t="inlineStr"/>
-      <c r="AU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1681,7 +1555,6 @@
       <c r="L10" t="n">
         <v>1</v>
       </c>
-      <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1690,17 +1563,6 @@
       <c r="O10" t="n">
         <v>0</v>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
-      <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
       <c r="AA10" t="n">
         <v>0</v>
       </c>
@@ -1746,12 +1608,6 @@
       <c r="AO10" t="n">
         <v>0</v>
       </c>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
-      <c r="AR10" t="inlineStr"/>
-      <c r="AS10" t="inlineStr"/>
-      <c r="AT10" t="inlineStr"/>
-      <c r="AU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1802,7 +1658,6 @@
       <c r="L11" t="n">
         <v>1</v>
       </c>
-      <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1811,17 +1666,6 @@
       <c r="O11" t="n">
         <v>0</v>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
       <c r="AA11" t="n">
         <v>0</v>
       </c>
@@ -1867,12 +1711,6 @@
       <c r="AO11" t="n">
         <v>0</v>
       </c>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
-      <c r="AR11" t="inlineStr"/>
-      <c r="AS11" t="inlineStr"/>
-      <c r="AT11" t="inlineStr"/>
-      <c r="AU11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1923,7 +1761,6 @@
       <c r="L12" t="n">
         <v>1</v>
       </c>
-      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -1932,17 +1769,6 @@
       <c r="O12" t="n">
         <v>0</v>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr"/>
-      <c r="W12" t="inlineStr"/>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="n">
         <v>0</v>
       </c>
@@ -1988,12 +1814,6 @@
       <c r="AO12" t="n">
         <v>0</v>
       </c>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
-      <c r="AR12" t="inlineStr"/>
-      <c r="AS12" t="inlineStr"/>
-      <c r="AT12" t="inlineStr"/>
-      <c r="AU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2044,7 +1864,6 @@
       <c r="L13" t="n">
         <v>1</v>
       </c>
-      <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2053,17 +1872,6 @@
       <c r="O13" t="n">
         <v>0</v>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr"/>
-      <c r="W13" t="inlineStr"/>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
       <c r="AA13" t="n">
         <v>0</v>
       </c>
@@ -2109,12 +1917,6 @@
       <c r="AO13" t="n">
         <v>0</v>
       </c>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
-      <c r="AR13" t="inlineStr"/>
-      <c r="AS13" t="inlineStr"/>
-      <c r="AT13" t="inlineStr"/>
-      <c r="AU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2165,7 +1967,6 @@
       <c r="L14" t="n">
         <v>1</v>
       </c>
-      <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
           <t>under procurement</t>
@@ -2174,17 +1975,6 @@
       <c r="O14" t="n">
         <v>0</v>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="n">
         <v>0</v>
       </c>
@@ -2230,12 +2020,6 @@
       <c r="AO14" t="n">
         <v>0</v>
       </c>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
-      <c r="AR14" t="inlineStr"/>
-      <c r="AS14" t="inlineStr"/>
-      <c r="AT14" t="inlineStr"/>
-      <c r="AU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2286,7 +2070,6 @@
       <c r="L15" t="n">
         <v>1</v>
       </c>
-      <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2295,17 +2078,6 @@
       <c r="O15" t="n">
         <v>0</v>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
@@ -2351,12 +2123,6 @@
       <c r="AO15" t="n">
         <v>0</v>
       </c>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2407,7 +2173,6 @@
       <c r="L16" t="n">
         <v>1</v>
       </c>
-      <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2416,17 +2181,6 @@
       <c r="O16" t="n">
         <v>0</v>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
         <v>0</v>
       </c>
@@ -2472,12 +2226,6 @@
       <c r="AO16" t="n">
         <v>0</v>
       </c>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2528,7 +2276,6 @@
       <c r="L17" t="n">
         <v>1</v>
       </c>
-      <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2537,17 +2284,6 @@
       <c r="O17" t="n">
         <v>0</v>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
       <c r="AA17" t="n">
         <v>0</v>
       </c>
@@ -2593,12 +2329,6 @@
       <c r="AO17" t="n">
         <v>0</v>
       </c>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2649,7 +2379,6 @@
       <c r="L18" t="n">
         <v>1</v>
       </c>
-      <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2658,17 +2387,6 @@
       <c r="O18" t="n">
         <v>0</v>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="n">
         <v>0</v>
       </c>
@@ -2714,12 +2432,6 @@
       <c r="AO18" t="n">
         <v>0</v>
       </c>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
-      <c r="AR18" t="inlineStr"/>
-      <c r="AS18" t="inlineStr"/>
-      <c r="AT18" t="inlineStr"/>
-      <c r="AU18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2770,7 +2482,6 @@
       <c r="L19" t="n">
         <v>1</v>
       </c>
-      <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2779,17 +2490,6 @@
       <c r="O19" t="n">
         <v>0</v>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
@@ -2835,12 +2535,6 @@
       <c r="AO19" t="n">
         <v>0</v>
       </c>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
-      <c r="AR19" t="inlineStr"/>
-      <c r="AS19" t="inlineStr"/>
-      <c r="AT19" t="inlineStr"/>
-      <c r="AU19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2891,7 +2585,6 @@
       <c r="L20" t="n">
         <v>1</v>
       </c>
-      <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -2900,17 +2593,6 @@
       <c r="O20" t="n">
         <v>0</v>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="n">
         <v>0</v>
       </c>
@@ -2956,12 +2638,6 @@
       <c r="AO20" t="n">
         <v>0</v>
       </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
-      <c r="AR20" t="inlineStr"/>
-      <c r="AS20" t="inlineStr"/>
-      <c r="AT20" t="inlineStr"/>
-      <c r="AU20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3012,7 +2688,6 @@
       <c r="L21" t="n">
         <v>1</v>
       </c>
-      <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3021,17 +2696,6 @@
       <c r="O21" t="n">
         <v>0</v>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="n">
         <v>0</v>
       </c>
@@ -3077,12 +2741,6 @@
       <c r="AO21" t="n">
         <v>0</v>
       </c>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
-      <c r="AT21" t="inlineStr"/>
-      <c r="AU21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3133,7 +2791,6 @@
       <c r="L22" t="n">
         <v>1</v>
       </c>
-      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3142,17 +2799,6 @@
       <c r="O22" t="n">
         <v>0</v>
       </c>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="n">
         <v>0</v>
       </c>
@@ -3198,12 +2844,6 @@
       <c r="AO22" t="n">
         <v>0</v>
       </c>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -3254,7 +2894,6 @@
       <c r="L23" t="n">
         <v>1</v>
       </c>
-      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3263,17 +2902,6 @@
       <c r="O23" t="n">
         <v>0</v>
       </c>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="n">
         <v>0</v>
       </c>
@@ -3319,12 +2947,6 @@
       <c r="AO23" t="n">
         <v>0</v>
       </c>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
-      <c r="AR23" t="inlineStr"/>
-      <c r="AS23" t="inlineStr"/>
-      <c r="AT23" t="inlineStr"/>
-      <c r="AU23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -3375,7 +2997,6 @@
       <c r="L24" t="n">
         <v>1</v>
       </c>
-      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3384,17 +3005,6 @@
       <c r="O24" t="n">
         <v>0</v>
       </c>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="n">
         <v>0</v>
       </c>
@@ -3440,12 +3050,6 @@
       <c r="AO24" t="n">
         <v>0</v>
       </c>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
-      <c r="AR24" t="inlineStr"/>
-      <c r="AS24" t="inlineStr"/>
-      <c r="AT24" t="inlineStr"/>
-      <c r="AU24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -3496,7 +3100,6 @@
       <c r="L25" t="n">
         <v>1</v>
       </c>
-      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3505,17 +3108,6 @@
       <c r="O25" t="n">
         <v>0</v>
       </c>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="n">
         <v>0</v>
       </c>
@@ -3561,12 +3153,6 @@
       <c r="AO25" t="n">
         <v>0</v>
       </c>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
-      <c r="AR25" t="inlineStr"/>
-      <c r="AS25" t="inlineStr"/>
-      <c r="AT25" t="inlineStr"/>
-      <c r="AU25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -3617,7 +3203,6 @@
       <c r="L26" t="n">
         <v>1</v>
       </c>
-      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3626,17 +3211,6 @@
       <c r="O26" t="n">
         <v>0</v>
       </c>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="n">
         <v>0</v>
       </c>
@@ -3682,12 +3256,6 @@
       <c r="AO26" t="n">
         <v>0</v>
       </c>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
-      <c r="AR26" t="inlineStr"/>
-      <c r="AS26" t="inlineStr"/>
-      <c r="AT26" t="inlineStr"/>
-      <c r="AU26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -3738,7 +3306,6 @@
       <c r="L27" t="n">
         <v>1</v>
       </c>
-      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3747,17 +3314,6 @@
       <c r="O27" t="n">
         <v>0</v>
       </c>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
@@ -3803,12 +3359,6 @@
       <c r="AO27" t="n">
         <v>0</v>
       </c>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
-      <c r="AR27" t="inlineStr"/>
-      <c r="AS27" t="inlineStr"/>
-      <c r="AT27" t="inlineStr"/>
-      <c r="AU27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -3859,7 +3409,6 @@
       <c r="L28" t="n">
         <v>1</v>
       </c>
-      <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3868,17 +3417,6 @@
       <c r="O28" t="n">
         <v>0</v>
       </c>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="n">
         <v>0</v>
       </c>
@@ -3924,12 +3462,6 @@
       <c r="AO28" t="n">
         <v>0</v>
       </c>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
-      <c r="AR28" t="inlineStr"/>
-      <c r="AS28" t="inlineStr"/>
-      <c r="AT28" t="inlineStr"/>
-      <c r="AU28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -3980,7 +3512,6 @@
       <c r="L29" t="n">
         <v>1</v>
       </c>
-      <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -3989,17 +3520,6 @@
       <c r="O29" t="n">
         <v>0</v>
       </c>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="n">
         <v>0</v>
       </c>
@@ -4045,12 +3565,6 @@
       <c r="AO29" t="n">
         <v>0</v>
       </c>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
-      <c r="AR29" t="inlineStr"/>
-      <c r="AS29" t="inlineStr"/>
-      <c r="AT29" t="inlineStr"/>
-      <c r="AU29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -4101,7 +3615,6 @@
       <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4110,17 +3623,6 @@
       <c r="O30" t="n">
         <v>0</v>
       </c>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="n">
         <v>0</v>
       </c>
@@ -4166,12 +3668,6 @@
       <c r="AO30" t="n">
         <v>0</v>
       </c>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
-      <c r="AR30" t="inlineStr"/>
-      <c r="AS30" t="inlineStr"/>
-      <c r="AT30" t="inlineStr"/>
-      <c r="AU30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -4222,7 +3718,6 @@
       <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4231,17 +3726,6 @@
       <c r="O31" t="n">
         <v>0</v>
       </c>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="n">
         <v>0</v>
       </c>
@@ -4287,12 +3771,6 @@
       <c r="AO31" t="n">
         <v>0</v>
       </c>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
-      <c r="AR31" t="inlineStr"/>
-      <c r="AS31" t="inlineStr"/>
-      <c r="AT31" t="inlineStr"/>
-      <c r="AU31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -4343,7 +3821,6 @@
       <c r="L32" t="n">
         <v>1</v>
       </c>
-      <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4352,17 +3829,6 @@
       <c r="O32" t="n">
         <v>0</v>
       </c>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="n">
         <v>0</v>
       </c>
@@ -4408,12 +3874,6 @@
       <c r="AO32" t="n">
         <v>0</v>
       </c>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
-      <c r="AR32" t="inlineStr"/>
-      <c r="AS32" t="inlineStr"/>
-      <c r="AT32" t="inlineStr"/>
-      <c r="AU32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -4464,7 +3924,6 @@
       <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4473,17 +3932,6 @@
       <c r="O33" t="n">
         <v>0</v>
       </c>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="n">
         <v>0</v>
       </c>
@@ -4529,12 +3977,6 @@
       <c r="AO33" t="n">
         <v>0</v>
       </c>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
-      <c r="AR33" t="inlineStr"/>
-      <c r="AS33" t="inlineStr"/>
-      <c r="AT33" t="inlineStr"/>
-      <c r="AU33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -4585,7 +4027,6 @@
       <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4594,17 +4035,6 @@
       <c r="O34" t="n">
         <v>0</v>
       </c>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="n">
         <v>0</v>
       </c>
@@ -4650,12 +4080,6 @@
       <c r="AO34" t="n">
         <v>0</v>
       </c>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
-      <c r="AR34" t="inlineStr"/>
-      <c r="AS34" t="inlineStr"/>
-      <c r="AT34" t="inlineStr"/>
-      <c r="AU34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -4706,7 +4130,6 @@
       <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4715,17 +4138,6 @@
       <c r="O35" t="n">
         <v>0</v>
       </c>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="n">
         <v>0</v>
       </c>
@@ -4771,12 +4183,6 @@
       <c r="AO35" t="n">
         <v>0</v>
       </c>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
-      <c r="AR35" t="inlineStr"/>
-      <c r="AS35" t="inlineStr"/>
-      <c r="AT35" t="inlineStr"/>
-      <c r="AU35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -4827,7 +4233,6 @@
       <c r="L36" t="n">
         <v>1</v>
       </c>
-      <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4836,17 +4241,6 @@
       <c r="O36" t="n">
         <v>0</v>
       </c>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="n">
         <v>0</v>
       </c>
@@ -4892,12 +4286,6 @@
       <c r="AO36" t="n">
         <v>0</v>
       </c>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
-      <c r="AR36" t="inlineStr"/>
-      <c r="AS36" t="inlineStr"/>
-      <c r="AT36" t="inlineStr"/>
-      <c r="AU36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -4948,7 +4336,6 @@
       <c r="L37" t="n">
         <v>1</v>
       </c>
-      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -4957,17 +4344,6 @@
       <c r="O37" t="n">
         <v>0</v>
       </c>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="n">
         <v>0</v>
       </c>
@@ -5013,12 +4389,6 @@
       <c r="AO37" t="n">
         <v>0</v>
       </c>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
-      <c r="AR37" t="inlineStr"/>
-      <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="inlineStr"/>
-      <c r="AU37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -5069,7 +4439,6 @@
       <c r="L38" t="n">
         <v>1</v>
       </c>
-      <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5078,17 +4447,6 @@
       <c r="O38" t="n">
         <v>0</v>
       </c>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="n">
         <v>0</v>
       </c>
@@ -5134,12 +4492,6 @@
       <c r="AO38" t="n">
         <v>0</v>
       </c>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
-      <c r="AR38" t="inlineStr"/>
-      <c r="AS38" t="inlineStr"/>
-      <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -5190,7 +4542,6 @@
       <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5199,17 +4550,6 @@
       <c r="O39" t="n">
         <v>0</v>
       </c>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="n">
         <v>0</v>
       </c>
@@ -5255,12 +4595,6 @@
       <c r="AO39" t="n">
         <v>0</v>
       </c>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
-      <c r="AR39" t="inlineStr"/>
-      <c r="AS39" t="inlineStr"/>
-      <c r="AT39" t="inlineStr"/>
-      <c r="AU39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -5311,7 +4645,6 @@
       <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5320,17 +4653,6 @@
       <c r="O40" t="n">
         <v>0</v>
       </c>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="n">
         <v>0</v>
       </c>
@@ -5376,12 +4698,6 @@
       <c r="AO40" t="n">
         <v>0</v>
       </c>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -5432,7 +4748,6 @@
       <c r="L41" t="n">
         <v>1</v>
       </c>
-      <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5441,17 +4756,6 @@
       <c r="O41" t="n">
         <v>0</v>
       </c>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="n">
         <v>0</v>
       </c>
@@ -5497,12 +4801,6 @@
       <c r="AO41" t="n">
         <v>0</v>
       </c>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -5553,7 +4851,6 @@
       <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5562,17 +4859,6 @@
       <c r="O42" t="n">
         <v>0</v>
       </c>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
       <c r="AA42" t="n">
         <v>0</v>
       </c>
@@ -5618,12 +4904,6 @@
       <c r="AO42" t="n">
         <v>0</v>
       </c>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
-      <c r="AR42" t="inlineStr"/>
-      <c r="AS42" t="inlineStr"/>
-      <c r="AT42" t="inlineStr"/>
-      <c r="AU42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -5674,7 +4954,6 @@
       <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5683,17 +4962,6 @@
       <c r="O43" t="n">
         <v>0</v>
       </c>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="n">
         <v>0</v>
       </c>
@@ -5739,12 +5007,6 @@
       <c r="AO43" t="n">
         <v>0</v>
       </c>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
-      <c r="AR43" t="inlineStr"/>
-      <c r="AS43" t="inlineStr"/>
-      <c r="AT43" t="inlineStr"/>
-      <c r="AU43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -5795,7 +5057,6 @@
       <c r="L44" t="n">
         <v>1</v>
       </c>
-      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5804,17 +5065,6 @@
       <c r="O44" t="n">
         <v>0</v>
       </c>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="n">
         <v>0</v>
       </c>
@@ -5860,12 +5110,6 @@
       <c r="AO44" t="n">
         <v>0</v>
       </c>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
-      <c r="AR44" t="inlineStr"/>
-      <c r="AS44" t="inlineStr"/>
-      <c r="AT44" t="inlineStr"/>
-      <c r="AU44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -5916,7 +5160,6 @@
       <c r="L45" t="n">
         <v>1</v>
       </c>
-      <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -5925,17 +5168,6 @@
       <c r="O45" t="n">
         <v>0</v>
       </c>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="n">
         <v>0</v>
       </c>
@@ -5981,12 +5213,6 @@
       <c r="AO45" t="n">
         <v>0</v>
       </c>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
-      <c r="AR45" t="inlineStr"/>
-      <c r="AS45" t="inlineStr"/>
-      <c r="AT45" t="inlineStr"/>
-      <c r="AU45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -6037,7 +5263,6 @@
       <c r="L46" t="n">
         <v>1</v>
       </c>
-      <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6046,17 +5271,6 @@
       <c r="O46" t="n">
         <v>0</v>
       </c>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="n">
         <v>0</v>
       </c>
@@ -6102,12 +5316,6 @@
       <c r="AO46" t="n">
         <v>0</v>
       </c>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
-      <c r="AR46" t="inlineStr"/>
-      <c r="AS46" t="inlineStr"/>
-      <c r="AT46" t="inlineStr"/>
-      <c r="AU46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -6158,7 +5366,6 @@
       <c r="L47" t="n">
         <v>1</v>
       </c>
-      <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6167,17 +5374,6 @@
       <c r="O47" t="n">
         <v>0</v>
       </c>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="n">
         <v>0</v>
       </c>
@@ -6223,12 +5419,6 @@
       <c r="AO47" t="n">
         <v>0</v>
       </c>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
-      <c r="AR47" t="inlineStr"/>
-      <c r="AS47" t="inlineStr"/>
-      <c r="AT47" t="inlineStr"/>
-      <c r="AU47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -6279,7 +5469,6 @@
       <c r="L48" t="n">
         <v>1</v>
       </c>
-      <c r="M48" t="inlineStr"/>
       <c r="N48" t="inlineStr">
         <is>
           <t>Under Procurement</t>
@@ -6288,17 +5477,6 @@
       <c r="O48" t="n">
         <v>0</v>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="n">
         <v>0</v>
       </c>
@@ -6344,12 +5522,88 @@
       <c r="AO48" t="n">
         <v>0</v>
       </c>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
-      <c r="AR48" t="inlineStr"/>
-      <c r="AS48" t="inlineStr"/>
-      <c r="AT48" t="inlineStr"/>
-      <c r="AU48" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation sqref="AV2:AV48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AW2:AW48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AX2:AX48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+    <dataValidation sqref="AY2:AY48" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>=DropdownOptions!$A$1:$A$7</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>0% - 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>11% - 25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>26% - 50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>51% - 75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>76% - 90%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>91% - 99%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
